--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user124\Downloads\NLP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rssinoff\Documents\Personal\Technion\NLP\Technion_NLP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -372,19 +372,19 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="1" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -407,12 +407,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>20</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>0.75416666666666676</v>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Amount of Iterations</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>4 i5 CPUs, 8 GRAM</t>
+  </si>
+  <si>
+    <t>folder name</t>
+  </si>
+  <si>
+    <t>21_01-223435</t>
   </si>
 </sst>
 </file>
@@ -369,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -382,9 +388,10 @@
     <col min="5" max="5" width="21.453125" customWidth="1"/>
     <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.1796875" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -406,8 +413,11 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -428,6 +438,9 @@
       </c>
       <c r="G2" t="s">
         <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Amount of Iterations</t>
   </si>
@@ -56,7 +56,10 @@
     <t>folder name</t>
   </si>
   <si>
-    <t>21_01-223435</t>
+    <t>4 i7 CPUs, 16 GRAM</t>
+  </si>
+  <si>
+    <t>results_22_01-205446</t>
   </si>
 </sst>
 </file>
@@ -375,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -388,10 +391,10 @@
     <col min="5" max="5" width="21.453125" customWidth="1"/>
     <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.1796875" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -417,7 +420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -425,22 +428,25 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>29.79</v>
       </c>
       <c r="D2" s="1">
-        <v>0.75416666666666676</v>
+        <v>0.85486111111111107</v>
       </c>
       <c r="E2" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>0.25416666666666665</v>
       </c>
       <c r="F2" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.19930555555555554</v>
       </c>
       <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Amount of Iterations</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Model</t>
   </si>
@@ -60,6 +57,51 @@
   </si>
   <si>
     <t>results_22_01-205446</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>results_22_01-221008</t>
+  </si>
+  <si>
+    <t>results_22_01-221206</t>
+  </si>
+  <si>
+    <t>results_22_01-215936</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>1-13</t>
+  </si>
+  <si>
+    <t>results_22_01-220043</t>
+  </si>
+  <si>
+    <t>results_22_01-220106</t>
+  </si>
+  <si>
+    <t>results_22_01-225407</t>
+  </si>
+  <si>
+    <t>results_22_01-234827</t>
+  </si>
+  <si>
+    <t>#Iterations</t>
+  </si>
+  <si>
+    <t>Shuffle?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Inference Method</t>
+  </si>
+  <si>
+    <t>"best tree" (1 root-edge)</t>
   </si>
 </sst>
 </file>
@@ -95,9 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,78 +422,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" customWidth="1"/>
-    <col min="8" max="8" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1796875" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
+      <c r="K1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2">
         <v>29.79</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.85486111111111107</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="G2" s="3">
+        <v>1.4247685185185184E-2</v>
+      </c>
+      <c r="H2" s="1">
         <v>0.25416666666666665</v>
       </c>
-      <c r="F2" s="1">
+      <c r="I2" s="1">
         <v>0.19930555555555554</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>30.2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4.7233796296296295E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>26.9</v>
+      </c>
+      <c r="G4" s="3">
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>30.85</v>
+      </c>
+      <c r="G5" s="3">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.23055555555555554</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.19930555555555554</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
-        <v>8</v>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>34.15</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.5706018518518518E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>34.65</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7.1921296296296303E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>34.39</v>
+      </c>
+      <c r="G10" s="3">
+        <v>7.6493055555555564E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>Model</t>
   </si>
@@ -102,6 +102,102 @@
   </si>
   <si>
     <t>"best tree" (1 root-edge)</t>
+  </si>
+  <si>
+    <t>1-36</t>
+  </si>
+  <si>
+    <t>results_24_01-001237</t>
+  </si>
+  <si>
+    <t>results_24_01-001250</t>
+  </si>
+  <si>
+    <t>results_24_01-000536</t>
+  </si>
+  <si>
+    <t>results_24_01-001318</t>
+  </si>
+  <si>
+    <t>6:06</t>
+  </si>
+  <si>
+    <t>8:27</t>
+  </si>
+  <si>
+    <t>6:47</t>
+  </si>
+  <si>
+    <t>5:32</t>
+  </si>
+  <si>
+    <t>8:33</t>
+  </si>
+  <si>
+    <t>8:22</t>
+  </si>
+  <si>
+    <t>8:37</t>
+  </si>
+  <si>
+    <t>6:36</t>
+  </si>
+  <si>
+    <t>20:35</t>
+  </si>
+  <si>
+    <t>24:40</t>
+  </si>
+  <si>
+    <t>1:08:00</t>
+  </si>
+  <si>
+    <t>0:20:31</t>
+  </si>
+  <si>
+    <t>1:44:00</t>
+  </si>
+  <si>
+    <t>2:05:00</t>
+  </si>
+  <si>
+    <t>0:22:37</t>
+  </si>
+  <si>
+    <t>1:07:00</t>
+  </si>
+  <si>
+    <t>1:43:34</t>
+  </si>
+  <si>
+    <t>1:50:09</t>
+  </si>
+  <si>
+    <t>0:59:15</t>
+  </si>
+  <si>
+    <t>3:00:30</t>
+  </si>
+  <si>
+    <t>20:33</t>
+  </si>
+  <si>
+    <t>4:35:48</t>
+  </si>
+  <si>
+    <t>19:09</t>
+  </si>
+  <si>
+    <t>15:58</t>
+  </si>
+  <si>
+    <t>4:19:15</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>13:58</t>
   </si>
 </sst>
 </file>
@@ -139,9 +235,15 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,272 +580,455 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2">
         <v>29.79</v>
       </c>
-      <c r="G2" s="3">
-        <v>1.4247685185185184E-2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.25416666666666665</v>
+      <c r="G2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="I2" s="1">
         <v>0.19930555555555554</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
         <v>50</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
         <v>30.2</v>
       </c>
-      <c r="G3" s="3">
-        <v>4.7233796296296295E-2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.3520833333333333</v>
+      <c r="G3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="I3" s="1">
         <v>0.28888888888888892</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
         <v>80</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2">
         <v>26.9</v>
       </c>
-      <c r="G4" s="3">
-        <v>7.2222222222222229E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.28263888888888888</v>
+      <c r="G4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I4" s="1">
         <v>0.23611111111111113</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
         <v>100</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
         <v>30.85</v>
       </c>
-      <c r="G5" s="3">
-        <v>8.6805555555555566E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.23055555555555554</v>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I5" s="1">
         <v>0.19930555555555554</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
         <v>34.15</v>
       </c>
-      <c r="G7" s="3">
-        <v>1.5706018518518518E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.35625000000000001</v>
+      <c r="G7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="I7" s="1">
         <v>0.29722222222222222</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>50</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2">
         <v>33.799999999999997</v>
       </c>
-      <c r="G8" s="3">
-        <v>4.6527777777777779E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.34861111111111115</v>
+      <c r="G8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="I8" s="1">
         <v>0.29375000000000001</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>80</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2">
         <v>34.65</v>
       </c>
-      <c r="G9" s="3">
-        <v>7.1921296296296303E-2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.35902777777777778</v>
+      <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="I9" s="1">
         <v>0.30416666666666664</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>100</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2">
         <v>34.39</v>
       </c>
-      <c r="G10" s="3">
-        <v>7.6493055555555564E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.27499999999999997</v>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="I10" s="1">
         <v>0.23333333333333331</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2">
+        <v>80</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2">
+        <v>74.5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2">
+        <v>100</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="2">
+        <v>74.55</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -104,9 +104,6 @@
     <t>"best tree" (1 root-edge)</t>
   </si>
   <si>
-    <t>1-36</t>
-  </si>
-  <si>
     <t>results_24_01-001237</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>13:58</t>
+  </si>
+  <si>
+    <t>1-35</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,10 +597,10 @@
         <v>29.79</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1">
         <v>0.19930555555555554</v>
@@ -630,10 +630,10 @@
         <v>30.2</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1">
         <v>0.28888888888888892</v>
@@ -663,10 +663,10 @@
         <v>26.9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1">
         <v>0.23611111111111113</v>
@@ -696,10 +696,10 @@
         <v>30.85</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1">
         <v>0.19930555555555554</v>
@@ -744,10 +744,10 @@
         <v>34.15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1">
         <v>0.29722222222222222</v>
@@ -779,10 +779,10 @@
         <v>33.799999999999997</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="1">
         <v>0.29375000000000001</v>
@@ -814,10 +814,10 @@
         <v>34.65</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="1">
         <v>0.30416666666666664</v>
@@ -849,10 +849,10 @@
         <v>34.39</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="1">
         <v>0.23333333333333331</v>
@@ -882,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2">
         <v>20</v>
@@ -897,19 +897,19 @@
         <v>74.599999999999994</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -917,7 +917,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2">
         <v>50</v>
@@ -932,19 +932,19 @@
         <v>74.400000000000006</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2">
         <v>80</v>
@@ -967,19 +967,19 @@
         <v>74.5</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -987,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2">
         <v>100</v>
@@ -1002,19 +1002,19 @@
         <v>74.55</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="1">
         <v>0.68194444444444446</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
   <si>
     <t>Model</t>
   </si>
@@ -198,6 +198,57 @@
   </si>
   <si>
     <t>1-35</t>
+  </si>
+  <si>
+    <t>1_43</t>
+  </si>
+  <si>
+    <t>1:10:31</t>
+  </si>
+  <si>
+    <t>24:24</t>
+  </si>
+  <si>
+    <t>24:27</t>
+  </si>
+  <si>
+    <t>75.2</t>
+  </si>
+  <si>
+    <t>results_24_01-225739</t>
+  </si>
+  <si>
+    <t>results_24_01-225631</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>69.4</t>
+  </si>
+  <si>
+    <t>5:58:46</t>
+  </si>
+  <si>
+    <t>20:51</t>
+  </si>
+  <si>
+    <t>1, 4, 7, 8, 10, 13-43</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>5:55:42</t>
+  </si>
+  <si>
+    <t>19:43</t>
+  </si>
+  <si>
+    <t>16:49</t>
+  </si>
+  <si>
+    <t>results_25_01-004202</t>
   </si>
 </sst>
 </file>
@@ -233,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,6 +295,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1018,17 +1070,369 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="3">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="7410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="7410" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="POSSIBLY NON RELEVANT FEATURES" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
   <si>
     <t>Model</t>
   </si>
@@ -249,6 +250,15 @@
   </si>
   <si>
     <t>results_25_01-004202</t>
+  </si>
+  <si>
+    <t>פיצ'רים שהיו בשימוש</t>
+  </si>
+  <si>
+    <t>1, 4, 7, 8, 10, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43</t>
+  </si>
+  <si>
+    <t>14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 31, 32, 33, 34, 35, 40, 41, 42, 43</t>
   </si>
 </sst>
 </file>
@@ -284,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,6 +306,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1438,4 +1451,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="7410" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
   <si>
     <t>Model</t>
   </si>
@@ -259,6 +259,27 @@
   </si>
   <si>
     <t>14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 31, 32, 33, 34, 35, 40, 41, 42, 43</t>
+  </si>
+  <si>
+    <t>76.1</t>
+  </si>
+  <si>
+    <t>8-26, 28, 31-35, 40-43</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1:25:37</t>
+  </si>
+  <si>
+    <t>29:11</t>
+  </si>
+  <si>
+    <t>25:28</t>
+  </si>
+  <si>
+    <t>results_25_01_101351</t>
   </si>
 </sst>
 </file>
@@ -591,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -610,37 +631,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1111,7 +1132,7 @@
       <c r="E17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -1126,7 +1147,7 @@
       <c r="J17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1146,7 +1167,7 @@
       <c r="E18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>66</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -1161,15 +1182,28 @@
       <c r="J18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>64</v>
       </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1181,37 +1215,59 @@
       <c r="E20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="3" t="s">
         <v>73</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="A21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
@@ -1457,7 +1513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
   <si>
     <t>Model</t>
   </si>
@@ -280,6 +280,24 @@
   </si>
   <si>
     <t>results_25_01_101351</t>
+  </si>
+  <si>
+    <t>results_25_01-213552</t>
+  </si>
+  <si>
+    <t>onetree</t>
+  </si>
+  <si>
+    <t>77.65</t>
+  </si>
+  <si>
+    <t>1:16:59</t>
+  </si>
+  <si>
+    <t>0:48</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -612,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1283,17 +1301,39 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="104">
   <si>
     <t>Model</t>
   </si>
@@ -298,6 +298,45 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>8-26,28,31-35,40-46</t>
+  </si>
+  <si>
+    <t>45.75</t>
+  </si>
+  <si>
+    <t>results_25_01-232829</t>
+  </si>
+  <si>
+    <t>1-26, 28-35, 40-43</t>
+  </si>
+  <si>
+    <t>78.95</t>
+  </si>
+  <si>
+    <t>1:25:27</t>
+  </si>
+  <si>
+    <t>0:51</t>
+  </si>
+  <si>
+    <t>results_26_01-020842</t>
+  </si>
+  <si>
+    <t>8-26,28-35,40-46</t>
+  </si>
+  <si>
+    <t>79.15</t>
+  </si>
+  <si>
+    <t>1:06:30</t>
+  </si>
+  <si>
+    <t>0:40</t>
+  </si>
+  <si>
+    <t>results_26_01-080218</t>
   </si>
 </sst>
 </file>
@@ -631,7 +670,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1336,17 +1375,39 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
@@ -1362,30 +1423,74 @@
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -324,9 +324,6 @@
     <t>results_26_01-020842</t>
   </si>
   <si>
-    <t>8-26,28-35,40-46</t>
-  </si>
-  <si>
     <t>79.15</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>results_26_01-080218</t>
+  </si>
+  <si>
+    <t>8-26,28-35,40-43</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1462,7 +1462,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>80</v>
@@ -1474,13 +1474,13 @@
         <v>86</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>90</v>
@@ -1489,7 +1489,7 @@
         <v>7</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="114">
   <si>
     <t>Model</t>
   </si>
@@ -337,6 +337,36 @@
   </si>
   <si>
     <t>8-26,28-35,40-43</t>
+  </si>
+  <si>
+    <t>8-26,28-32,40-53</t>
+  </si>
+  <si>
+    <t>79.52</t>
+  </si>
+  <si>
+    <t>1:53:37</t>
+  </si>
+  <si>
+    <t>1:03</t>
+  </si>
+  <si>
+    <t>results_26_01-230149</t>
+  </si>
+  <si>
+    <t>79.42</t>
+  </si>
+  <si>
+    <t>1:51:38</t>
+  </si>
+  <si>
+    <t>1:08</t>
+  </si>
+  <si>
+    <t>0:01</t>
+  </si>
+  <si>
+    <t>results_27_01-010705</t>
   </si>
 </sst>
 </file>
@@ -669,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1519,30 +1549,74 @@
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="120">
   <si>
     <t>Model</t>
   </si>
@@ -363,10 +363,28 @@
     <t>1:08</t>
   </si>
   <si>
-    <t>0:01</t>
-  </si>
-  <si>
     <t>results_27_01-010705</t>
+  </si>
+  <si>
+    <t>1-53</t>
+  </si>
+  <si>
+    <t>79.9</t>
+  </si>
+  <si>
+    <t>1:27:09</t>
+  </si>
+  <si>
+    <t>00:57</t>
+  </si>
+  <si>
+    <t>0:49</t>
+  </si>
+  <si>
+    <t>0:45</t>
+  </si>
+  <si>
+    <t>results_27_01-090843</t>
   </si>
 </sst>
 </file>
@@ -700,7 +718,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1609,13 +1627,13 @@
         <v>111</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -1632,17 +1650,39 @@
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="125">
   <si>
     <t>Model</t>
   </si>
@@ -385,6 +385,21 @@
   </si>
   <si>
     <t>results_27_01-090843</t>
+  </si>
+  <si>
+    <t>1-26,28-32,40-53</t>
+  </si>
+  <si>
+    <t>80.1</t>
+  </si>
+  <si>
+    <t>1:49:33</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>results_27_01-154450</t>
   </si>
 </sst>
 </file>
@@ -718,7 +733,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1685,17 +1700,39 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="130">
   <si>
     <t>Model</t>
   </si>
@@ -400,6 +400,21 @@
   </si>
   <si>
     <t>results_27_01-154450</t>
+  </si>
+  <si>
+    <t>results_27_01-233834</t>
+  </si>
+  <si>
+    <t>1-26, 28-36, 40-53</t>
+  </si>
+  <si>
+    <t>1:55:28</t>
+  </si>
+  <si>
+    <t>80.4</t>
+  </si>
+  <si>
+    <t>1:07</t>
   </si>
 </sst>
 </file>
@@ -733,7 +748,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1748,17 +1763,39 @@
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="141">
   <si>
     <t>Model</t>
   </si>
@@ -405,16 +405,49 @@
     <t>results_27_01-233834</t>
   </si>
   <si>
-    <t>1-26, 28-36, 40-53</t>
-  </si>
-  <si>
     <t>1:55:28</t>
   </si>
   <si>
-    <t>80.4</t>
-  </si>
-  <si>
     <t>1:07</t>
+  </si>
+  <si>
+    <t>1-8, 10, 12-26, 28-36, 40-53</t>
+  </si>
+  <si>
+    <t>80.43</t>
+  </si>
+  <si>
+    <t>80.37</t>
+  </si>
+  <si>
+    <t>1:28:48</t>
+  </si>
+  <si>
+    <t>0:54</t>
+  </si>
+  <si>
+    <t>0:44</t>
+  </si>
+  <si>
+    <t>results_28_01-090522</t>
+  </si>
+  <si>
+    <t>80.56</t>
+  </si>
+  <si>
+    <t>1-26, 28-36, 41-53</t>
+  </si>
+  <si>
+    <t>1:29:24</t>
+  </si>
+  <si>
+    <t>1:01</t>
+  </si>
+  <si>
+    <t>0:52</t>
+  </si>
+  <si>
+    <t>results_28_01-090418</t>
   </si>
 </sst>
 </file>
@@ -745,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="H22" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1767,7 +1800,7 @@
         <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>80</v>
@@ -1779,13 +1812,13 @@
         <v>86</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>107</v>
@@ -1798,30 +1831,39 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
+      <c r="A37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
@@ -1835,6 +1877,41 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="143">
   <si>
     <t>Model</t>
   </si>
@@ -435,9 +435,6 @@
     <t>80.56</t>
   </si>
   <si>
-    <t>1-26, 28-36, 41-53</t>
-  </si>
-  <si>
     <t>1:29:24</t>
   </si>
   <si>
@@ -448,6 +445,15 @@
   </si>
   <si>
     <t>results_28_01-090418</t>
+  </si>
+  <si>
+    <t>27 - not good</t>
+  </si>
+  <si>
+    <t>40 - irrelevnat</t>
+  </si>
+  <si>
+    <t>1-26, 28-36, 41-48, 50-53</t>
   </si>
 </sst>
 </file>
@@ -780,14 +786,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H22" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" customWidth="1"/>
     <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
@@ -1800,7 +1806,7 @@
         <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>80</v>
@@ -1835,7 +1841,7 @@
         <v>11</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>80</v>
@@ -1850,19 +1856,19 @@
         <v>135</v>
       </c>
       <c r="G37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -1921,10 +1927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1934,7 +1940,7 @@
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -1945,47 +1951,53 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>27</v>
       </c>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="144">
   <si>
     <t>Model</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>1-26, 28-36, 41-48, 50-53</t>
+  </si>
+  <si>
+    <t>1-8, 10, 12-26, 28-36, 41-53</t>
   </si>
 </sst>
 </file>
@@ -784,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1917,6 +1920,26 @@
       </c>
       <c r="K40" s="4" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -472,12 +472,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -492,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -507,6 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1926,7 +1933,7 @@
       <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C42">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="147">
   <si>
     <t>Model</t>
   </si>
@@ -457,6 +457,15 @@
   </si>
   <si>
     <t>1-8, 10, 12-26, 28-36, 41-53</t>
+  </si>
+  <si>
+    <t>80.62</t>
+  </si>
+  <si>
+    <t>0:39</t>
+  </si>
+  <si>
+    <t>results_28_01-184827</t>
   </si>
 </sst>
 </file>
@@ -498,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -514,6 +523,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1946,7 +1956,22 @@
         <v>86</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>135</v>
+        <v>144</v>
+      </c>
+      <c r="G42" s="7">
+        <v>4.9756944444444444E-2</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
